--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463184E-346D-44E6-A2CD-9FA8C86629FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7683C-AC48-4A9E-B41F-912716071AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Venta Paletas Semana 25-28Ago</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>Total Deberia Caja</t>
+  </si>
+  <si>
+    <t>Venta Paletas Semana 28Ago-08Sept</t>
+  </si>
+  <si>
+    <t>V Sandia</t>
+  </si>
+  <si>
+    <t>V Galleta</t>
+  </si>
+  <si>
+    <t>R Naranja</t>
+  </si>
+  <si>
+    <t>R Cacahuate</t>
+  </si>
+  <si>
+    <t>R Mango Verde</t>
+  </si>
+  <si>
+    <t>R Fresa Kiwi</t>
+  </si>
+  <si>
+    <t>NUEVO STOCK SEMANA ENTRANTE</t>
   </si>
 </sst>
 </file>
@@ -208,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,12 +264,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -268,6 +303,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -603,21 +650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
-  <dimension ref="B1:N26"/>
+  <dimension ref="B1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -1336,7 +1385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1383,7 +1432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1430,16 +1479,16 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1516,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1483,7 +1532,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,12 +1552,1260 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <f>+D28-E28</f>
+        <v>9</v>
+      </c>
+      <c r="G28" s="4">
+        <f>+F28*40</f>
+        <v>360</v>
+      </c>
+      <c r="H28" s="4">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4">
+        <v>40</v>
+      </c>
+      <c r="J28" s="6">
+        <f>+I28-H28</f>
+        <v>15</v>
+      </c>
+      <c r="K28" s="6">
+        <f>+J28*F28</f>
+        <v>135</v>
+      </c>
+      <c r="L28" s="10">
+        <v>10</v>
+      </c>
+      <c r="M28" s="11">
+        <f>+L28-E28</f>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="8">
+        <f>+M28*H28</f>
+        <v>-25</v>
+      </c>
+      <c r="O28">
+        <f>+M28+E28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ref="F29:F47" si="8">+D29-E29</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" ref="G29:G40" si="9">+F29*40</f>
+        <v>240</v>
+      </c>
+      <c r="H29" s="4">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4">
+        <v>40</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" ref="J29:J40" si="10">+I29-H29</f>
+        <v>15</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" ref="K29:K47" si="11">+J29*F29</f>
+        <v>90</v>
+      </c>
+      <c r="L29" s="10">
+        <v>10</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" ref="M29:M47" si="12">+L29-E29</f>
+        <v>6</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" ref="N29:N47" si="13">+M29*H29</f>
+        <v>150</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O49" si="14">+M29+E29</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4">
+        <v>40</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>10</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="H31" s="4">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4">
+        <v>40</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="L31" s="10">
+        <v>10</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="H32" s="4">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4">
+        <v>40</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="L32" s="10">
+        <v>10</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="13"/>
+        <v>175</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="H33" s="4">
+        <v>25</v>
+      </c>
+      <c r="I33" s="4">
+        <v>40</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="L33" s="10">
+        <v>9</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15">
+        <v>9</v>
+      </c>
+      <c r="E34" s="15">
+        <v>7</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="H34" s="16">
+        <v>25</v>
+      </c>
+      <c r="I34" s="16">
+        <v>40</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="L34" s="18">
+        <v>5</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="13"/>
+        <v>-50</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="H35" s="4">
+        <v>25</v>
+      </c>
+      <c r="I35" s="4">
+        <v>40</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="L35" s="10">
+        <v>8</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15">
+        <v>9</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="15">
+        <v>5</v>
+      </c>
+      <c r="E36" s="15">
+        <v>3</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" ref="F36" si="15">+D36-E36</f>
+        <v>2</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36" si="16">+F36*40</f>
+        <v>80</v>
+      </c>
+      <c r="H36" s="16">
+        <v>25</v>
+      </c>
+      <c r="I36" s="16">
+        <v>40</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" ref="J36" si="17">+I36-H36</f>
+        <v>15</v>
+      </c>
+      <c r="K36" s="17">
+        <f t="shared" ref="K36" si="18">+J36*F36</f>
+        <v>30</v>
+      </c>
+      <c r="L36" s="18">
+        <v>5</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" ref="M36" si="19">+L36-E36</f>
+        <v>2</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" ref="N36" si="20">+M36*H36</f>
+        <v>50</v>
+      </c>
+      <c r="O36" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="15">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15">
+        <v>3</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" ref="F37:F38" si="21">+D37-E37</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" ref="G37:G38" si="22">+F37*40</f>
+        <v>80</v>
+      </c>
+      <c r="H37" s="16">
+        <v>25</v>
+      </c>
+      <c r="I37" s="16">
+        <v>40</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" ref="J37:J38" si="23">+I37-H37</f>
+        <v>15</v>
+      </c>
+      <c r="K37" s="17">
+        <f t="shared" ref="K37:K38" si="24">+J37*F37</f>
+        <v>30</v>
+      </c>
+      <c r="L37" s="18">
+        <v>5</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" ref="M37:M38" si="25">+L37-E37</f>
+        <v>2</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" ref="N37:N38" si="26">+M37*H37</f>
+        <v>50</v>
+      </c>
+      <c r="O37" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <v>11</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
+        <v>25</v>
+      </c>
+      <c r="I38" s="16">
+        <v>40</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="K38" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>5</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="26"/>
+        <v>125</v>
+      </c>
+      <c r="O38" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
+        <v>12</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="15">
+        <v>5</v>
+      </c>
+      <c r="E39" s="15">
+        <v>3</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="H39" s="16">
+        <v>25</v>
+      </c>
+      <c r="I39" s="16">
+        <v>40</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" ref="J39" si="27">+I39-H39</f>
+        <v>15</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" ref="K39" si="28">+J39*F39</f>
+        <v>30</v>
+      </c>
+      <c r="L39" s="18">
+        <v>5</v>
+      </c>
+      <c r="M39" s="18">
+        <f t="shared" ref="M39" si="29">+L39-E39</f>
+        <v>2</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" ref="N39" si="30">+M39*H39</f>
+        <v>50</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="H40" s="4">
+        <v>25</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="L40" s="10">
+        <v>10</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G41" s="4">
+        <f>+F41*23</f>
+        <v>92</v>
+      </c>
+      <c r="H41" s="4">
+        <v>15</v>
+      </c>
+      <c r="I41" s="4">
+        <v>23</v>
+      </c>
+      <c r="J41" s="6">
+        <f>+I41-H41</f>
+        <v>8</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="L41" s="10">
+        <v>10</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" ref="G42:G47" si="31">+F42*23</f>
+        <v>23</v>
+      </c>
+      <c r="H42" s="4">
+        <v>15</v>
+      </c>
+      <c r="I42" s="4">
+        <v>23</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" ref="J42:J47" si="32">+I42-H42</f>
+        <v>8</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L42" s="10">
+        <v>10</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="H43" s="4">
+        <v>15</v>
+      </c>
+      <c r="I43" s="4">
+        <v>23</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L43" s="10">
+        <v>10</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="H44" s="4">
+        <v>15</v>
+      </c>
+      <c r="I44" s="4">
+        <v>23</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L44" s="10">
+        <v>10</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+      <c r="H45" s="4">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4">
+        <v>23</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L45" s="10">
+        <v>10</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N45" s="8">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="H46" s="4">
+        <v>15</v>
+      </c>
+      <c r="I46" s="4">
+        <v>23</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L46" s="10">
+        <v>10</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="31"/>
+        <v>322</v>
+      </c>
+      <c r="H47" s="4">
+        <v>12</v>
+      </c>
+      <c r="I47" s="4">
+        <v>23</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="L47" s="10">
+        <v>20</v>
+      </c>
+      <c r="M47" s="11">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" si="13"/>
+        <v>168</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ref="F48:F49" si="33">+D48-E48</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" ref="G48:G49" si="34">+F48*23</f>
+        <v>23</v>
+      </c>
+      <c r="H48" s="4">
+        <v>12</v>
+      </c>
+      <c r="I48" s="4">
+        <v>23</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" ref="J48:J49" si="35">+I48-H48</f>
+        <v>11</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" ref="K48:K49" si="36">+J48*F48</f>
+        <v>11</v>
+      </c>
+      <c r="L48" s="10">
+        <v>5</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" ref="M48:M49" si="37">+L48-E48</f>
+        <v>2</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" ref="N48:N49" si="38">+M48*H48</f>
+        <v>24</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="34"/>
+        <v>23</v>
+      </c>
+      <c r="H49" s="4">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4">
+        <v>23</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="L49" s="10">
+        <v>5</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3">
+        <f>SUM(D28:D50)</f>
+        <v>179</v>
+      </c>
+      <c r="E55" s="3">
+        <f>SUM(E28:E50)</f>
+        <v>110</v>
+      </c>
+      <c r="F55" s="3">
+        <f>SUM(F28:F50)</f>
+        <v>69</v>
+      </c>
+      <c r="G55" s="3">
+        <f>SUM(G28:G50)</f>
+        <v>2233</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="8">
+        <f>SUM(N28:N50)</f>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1091</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="3">
+        <f>+G55+D56</f>
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1715</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="9">
+        <f>SUM(K28:K49)</f>
+        <v>866</v>
+      </c>
+      <c r="H57" s="7">
+        <f>+G57/2</f>
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7683C-AC48-4A9E-B41F-912716071AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E524DC-CB2F-404F-9F43-C670E7208FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Venta Paletas Semana 25-28Ago</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>NUEVO STOCK SEMANA ENTRANTE</t>
+  </si>
+  <si>
+    <t>Total Existencia=</t>
+  </si>
+  <si>
+    <t>Dejado en Caja Pal=</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
   </si>
 </sst>
 </file>
@@ -280,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -297,13 +306,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +318,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -650,43 +662,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
-  <dimension ref="B1:O57"/>
+  <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.25" customWidth="1"/>
+    <col min="22" max="22" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -726,8 +745,11 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -735,18 +757,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -760,21 +782,25 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <f>+M3+E3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -782,18 +808,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F18" si="0">+D4-E4</f>
-        <v>0</v>
+        <f t="shared" ref="F4:F24" si="0">+D4-E4</f>
+        <v>6</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="1">+F4*40</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G15" si="1">+F4*40</f>
+        <v>240</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -802,26 +828,30 @@
         <v>40</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J11" si="2">+I4-H4</f>
+        <f t="shared" ref="J4:J15" si="2">+I4-H4</f>
         <v>15</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K18" si="3">+J4*F4</f>
-        <v>0</v>
+        <f t="shared" ref="K4:K24" si="3">+J4*F4</f>
+        <v>90</v>
       </c>
       <c r="L4" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M18" si="4">+L4-E4</f>
-        <v>7</v>
+        <f t="shared" ref="M4:M24" si="4">+L4-E4</f>
+        <v>9</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="N4:N18" si="5">+M4*H4</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N4:N24" si="5">+M4*H4</f>
+        <v>225</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O24" si="6">+M4+E4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -829,18 +859,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -854,21 +884,25 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -876,18 +910,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -901,21 +935,25 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -923,18 +961,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>25</v>
@@ -948,21 +986,25 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="5"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -973,15 +1015,15 @@
         <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="4">
         <v>25</v>
@@ -995,68 +1037,76 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L8" s="10">
         <v>9</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+        <v>125</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="14">
         <v>25</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="14">
         <v>40</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>9</v>
-      </c>
-      <c r="M9" s="11">
+        <v>75</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1067,15 +1117,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1089,487 +1139,817 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L10" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+        <v>175</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="14">
         <v>25</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="14">
         <v>40</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L11" s="10">
-        <v>10</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="L11" s="16">
+        <v>10</v>
+      </c>
+      <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N11" s="8">
+        <v>7</v>
+      </c>
+      <c r="N11" s="15">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
+        <v>175</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="4">
-        <f>+F12*23</f>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H12" s="14">
+        <v>25</v>
+      </c>
+      <c r="I12" s="14">
+        <v>40</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H13" s="14">
+        <v>25</v>
+      </c>
+      <c r="I13" s="14">
+        <v>40</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="L13" s="16">
+        <v>10</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H14" s="14">
+        <v>25</v>
+      </c>
+      <c r="I14" s="14">
+        <v>40</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L15" s="10">
+        <v>10</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="4">
+        <f>+F16*23</f>
+        <v>207</v>
+      </c>
+      <c r="H16" s="4">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6">
+        <f>+I16-H16</f>
+        <v>8</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="L16" s="10">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:G24" si="7">+F17*23</f>
+        <v>23</v>
+      </c>
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" ref="J17:J24" si="8">+I17-H17</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L17" s="10">
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="H19" s="4">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="L19" s="10">
+        <v>10</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="H20" s="4">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L20" s="10">
+        <v>10</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="H12" s="4">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H21" s="4">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4">
         <v>23</v>
       </c>
-      <c r="J12" s="6">
-        <f>+I12-H12</f>
+      <c r="J21" s="6">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K21" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L12" s="10">
-        <v>10</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="L21" s="10">
+        <v>10</v>
+      </c>
+      <c r="M21" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="H22" s="4">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4">
+        <v>23</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="L22" s="10">
+        <v>35</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" ref="G13:G18" si="6">+F13*23</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="7"/>
+        <v>-23</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4">
         <v>23</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" ref="J13:J18" si="7">+I13-H13</f>
-        <v>8</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J23" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>10</v>
-      </c>
-      <c r="M13" s="11">
+        <v>-11</v>
+      </c>
+      <c r="L23" s="10">
+        <v>5</v>
+      </c>
+      <c r="M23" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+        <v>-12</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="8">
+        <f>SUM(N3:N24)</f>
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="I24" s="4">
+        <v>23</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="H14" s="4">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4">
-        <v>23</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L14" s="10">
-        <v>10</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="H15" s="4">
-        <v>15</v>
-      </c>
-      <c r="I15" s="4">
-        <v>23</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="3">
+        <f>SUM(D3:D24)</f>
+        <v>194</v>
+      </c>
+      <c r="S24" s="3">
+        <f>SUM(E3:E21)</f>
+        <v>89</v>
+      </c>
+      <c r="T24" s="3">
+        <f>SUM(F3:F24)</f>
+        <v>94</v>
+      </c>
+      <c r="U24" s="3">
+        <f>SUM(G3:G24)</f>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" s="3">
+        <v>85</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="3">
+        <f>+U24+R25</f>
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="Q26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="10">
-        <v>10</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
-        <v>23</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>10</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="H17" s="4">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4">
-        <v>23</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L17" s="10">
-        <v>10</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="H18" s="4">
-        <v>12</v>
-      </c>
-      <c r="I18" s="4">
-        <v>23</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L18" s="10">
-        <v>20</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="5"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
-        <f>SUM(D3:D21)</f>
-        <v>102</v>
-      </c>
-      <c r="E22" s="3">
-        <f>SUM(E3:E21)</f>
-        <v>84</v>
-      </c>
-      <c r="F22" s="3">
-        <f>SUM(F3:F21)</f>
-        <v>18</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(G3:G21)</f>
-        <v>550</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="8">
-        <f>SUM(N3:N21)</f>
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1150</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3">
-        <f>+G22+D23</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1801</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3" t="s">
+      <c r="R26" s="3">
+        <v>3190</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(K3:K18)</f>
-        <v>203</v>
-      </c>
-      <c r="H24" s="7">
-        <f>+G24/2</f>
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="U26" s="9">
+        <f>SUM(K3:K24)</f>
+        <v>1187</v>
+      </c>
+      <c r="V26" s="7">
+        <f>+U26/2</f>
+        <v>593.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1609,11 +1989,11 @@
       <c r="N27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>1</v>
       </c>
@@ -1664,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>2</v>
       </c>
@@ -1678,11 +2058,11 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29:F47" si="8">+D29-E29</f>
+        <f t="shared" ref="F29:F47" si="9">+D29-E29</f>
         <v>6</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ref="G29:G40" si="9">+F29*40</f>
+        <f t="shared" ref="G29:G40" si="10">+F29*40</f>
         <v>240</v>
       </c>
       <c r="H29" s="4">
@@ -1692,30 +2072,30 @@
         <v>40</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:J40" si="10">+I29-H29</f>
+        <f t="shared" ref="J29:J40" si="11">+I29-H29</f>
         <v>15</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ref="K29:K47" si="11">+J29*F29</f>
+        <f t="shared" ref="K29:K47" si="12">+J29*F29</f>
         <v>90</v>
       </c>
       <c r="L29" s="10">
         <v>10</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" ref="M29:M47" si="12">+L29-E29</f>
+        <f t="shared" ref="M29:M47" si="13">+L29-E29</f>
         <v>6</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" ref="N29:N47" si="13">+M29*H29</f>
+        <f t="shared" ref="N29:N47" si="14">+M29*H29</f>
         <v>150</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O49" si="14">+M29+E29</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O29:O49" si="15">+M29+E29</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>3</v>
       </c>
@@ -1729,11 +2109,11 @@
         <v>10</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H30" s="4">
@@ -1743,30 +2123,30 @@
         <v>40</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L30" s="10">
         <v>10</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>4</v>
       </c>
@@ -1780,11 +2160,11 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="H31" s="4">
@@ -1794,30 +2174,30 @@
         <v>40</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="O31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>5</v>
       </c>
@@ -1831,11 +2211,11 @@
         <v>3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="H32" s="4">
@@ -1845,30 +2225,30 @@
         <v>40</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="L32" s="10">
         <v>10</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>175</v>
       </c>
       <c r="O32">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>6</v>
       </c>
@@ -1882,11 +2262,11 @@
         <v>8</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="H33" s="4">
@@ -1896,81 +2276,81 @@
         <v>40</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="L33" s="10">
         <v>9</v>
       </c>
       <c r="M33" s="11">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13">
+        <v>9</v>
+      </c>
+      <c r="E34" s="13">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="H34" s="14">
+        <v>25</v>
+      </c>
+      <c r="I34" s="14">
+        <v>40</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="K34" s="15">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="8">
+        <v>30</v>
+      </c>
+      <c r="L34" s="16">
+        <v>5</v>
+      </c>
+      <c r="M34" s="16">
         <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="O33">
+        <v>-2</v>
+      </c>
+      <c r="N34" s="15">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="15">
-        <v>9</v>
-      </c>
-      <c r="E34" s="15">
-        <v>7</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G34" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="H34" s="16">
-        <v>25</v>
-      </c>
-      <c r="I34" s="16">
-        <v>40</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="L34" s="18">
-        <v>5</v>
-      </c>
-      <c r="M34" s="18">
-        <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="13"/>
         <v>-50</v>
       </c>
-      <c r="O34" s="19">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>8</v>
       </c>
@@ -1984,11 +2364,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="H35" s="4">
@@ -1998,234 +2378,234 @@
         <v>40</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="L35" s="10">
         <v>8</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="O35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+    <row r="36" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13">
         <v>9</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="15">
-        <v>5</v>
-      </c>
-      <c r="E36" s="15">
+      <c r="D36" s="13">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13">
         <v>3</v>
       </c>
-      <c r="F36" s="15">
-        <f t="shared" ref="F36" si="15">+D36-E36</f>
+      <c r="F36" s="13">
+        <f t="shared" ref="F36" si="16">+D36-E36</f>
         <v>2</v>
       </c>
-      <c r="G36" s="16">
-        <f t="shared" ref="G36" si="16">+F36*40</f>
+      <c r="G36" s="14">
+        <f t="shared" ref="G36" si="17">+F36*40</f>
         <v>80</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="14">
         <v>25</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <v>40</v>
       </c>
-      <c r="J36" s="17">
-        <f t="shared" ref="J36" si="17">+I36-H36</f>
-        <v>15</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" ref="K36" si="18">+J36*F36</f>
+      <c r="J36" s="15">
+        <f t="shared" ref="J36" si="18">+I36-H36</f>
+        <v>15</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" ref="K36" si="19">+J36*F36</f>
         <v>30</v>
       </c>
-      <c r="L36" s="18">
-        <v>5</v>
-      </c>
-      <c r="M36" s="18">
-        <f t="shared" ref="M36" si="19">+L36-E36</f>
+      <c r="L36" s="16">
+        <v>5</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" ref="M36" si="20">+L36-E36</f>
         <v>2</v>
       </c>
-      <c r="N36" s="17">
-        <f t="shared" ref="N36" si="20">+M36*H36</f>
+      <c r="N36" s="15">
+        <f t="shared" ref="N36" si="21">+M36*H36</f>
         <v>50</v>
       </c>
-      <c r="O36" s="19">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
-        <v>10</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="O36" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="15">
-        <v>5</v>
-      </c>
-      <c r="E37" s="15">
+      <c r="D37" s="13">
+        <v>5</v>
+      </c>
+      <c r="E37" s="13">
         <v>3</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" ref="F37:F38" si="21">+D37-E37</f>
+      <c r="F37" s="13">
+        <f t="shared" ref="F37:F38" si="22">+D37-E37</f>
         <v>2</v>
       </c>
-      <c r="G37" s="16">
-        <f t="shared" ref="G37:G38" si="22">+F37*40</f>
+      <c r="G37" s="14">
+        <f t="shared" ref="G37:G38" si="23">+F37*40</f>
         <v>80</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="14">
         <v>25</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="14">
         <v>40</v>
       </c>
-      <c r="J37" s="17">
-        <f t="shared" ref="J37:J38" si="23">+I37-H37</f>
-        <v>15</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" ref="K37:K38" si="24">+J37*F37</f>
+      <c r="J37" s="15">
+        <f t="shared" ref="J37:J38" si="24">+I37-H37</f>
+        <v>15</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" ref="K37:K38" si="25">+J37*F37</f>
         <v>30</v>
       </c>
-      <c r="L37" s="18">
-        <v>5</v>
-      </c>
-      <c r="M37" s="18">
-        <f t="shared" ref="M37:M38" si="25">+L37-E37</f>
+      <c r="L37" s="16">
+        <v>5</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" ref="M37:M38" si="26">+L37-E37</f>
         <v>2</v>
       </c>
-      <c r="N37" s="17">
-        <f t="shared" ref="N37:N38" si="26">+M37*H37</f>
+      <c r="N37" s="15">
+        <f t="shared" ref="N37:N38" si="27">+M37*H37</f>
         <v>50</v>
       </c>
-      <c r="O37" s="19">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="O37" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
         <v>11</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="15">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0</v>
-      </c>
-      <c r="F38" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H38" s="16">
+      <c r="G38" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
         <v>25</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="14">
         <v>40</v>
       </c>
-      <c r="J38" s="17">
-        <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="J38" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>5</v>
-      </c>
-      <c r="M38" s="18">
+        <v>15</v>
+      </c>
+      <c r="K38" s="15">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <v>5</v>
+      </c>
+      <c r="M38" s="16">
         <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="27"/>
         <v>125</v>
       </c>
-      <c r="O38" s="19">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+      <c r="O38" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13">
         <v>12</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="15">
-        <v>5</v>
-      </c>
-      <c r="E39" s="15">
+      <c r="D39" s="13">
+        <v>5</v>
+      </c>
+      <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="15">
-        <f t="shared" si="8"/>
+      <c r="F39" s="13">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G39" s="16">
-        <f t="shared" si="9"/>
+      <c r="G39" s="14">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="14">
         <v>25</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <v>40</v>
       </c>
-      <c r="J39" s="17">
-        <f t="shared" ref="J39" si="27">+I39-H39</f>
-        <v>15</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" ref="K39" si="28">+J39*F39</f>
+      <c r="J39" s="15">
+        <f t="shared" ref="J39" si="28">+I39-H39</f>
+        <v>15</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" ref="K39" si="29">+J39*F39</f>
         <v>30</v>
       </c>
-      <c r="L39" s="18">
-        <v>5</v>
-      </c>
-      <c r="M39" s="18">
-        <f t="shared" ref="M39" si="29">+L39-E39</f>
+      <c r="L39" s="16">
+        <v>5</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" ref="M39" si="30">+L39-E39</f>
         <v>2</v>
       </c>
-      <c r="N39" s="17">
-        <f t="shared" ref="N39" si="30">+M39*H39</f>
+      <c r="N39" s="15">
+        <f t="shared" ref="N39" si="31">+M39*H39</f>
         <v>50</v>
       </c>
-      <c r="O39" s="19">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>13</v>
       </c>
@@ -2239,11 +2619,11 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="H40" s="4">
@@ -2253,30 +2633,35 @@
         <v>40</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="O40">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2290,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G41" s="4">
@@ -2308,26 +2693,35 @@
         <v>8</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="L41" s="10">
         <v>10</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="O41">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>15</v>
       </c>
@@ -2341,11 +2735,11 @@
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" ref="G42:G47" si="31">+F42*23</f>
+        <f t="shared" ref="G42:G47" si="32">+F42*23</f>
         <v>23</v>
       </c>
       <c r="H42" s="4">
@@ -2355,30 +2749,41 @@
         <v>23</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" ref="J42:J47" si="32">+I42-H42</f>
+        <f t="shared" ref="J42:J47" si="33">+I42-H42</f>
         <v>8</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L42" s="10">
         <v>10</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="O42">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="11">
+        <f>M3</f>
+        <v>6</v>
+      </c>
+      <c r="U42" s="8">
+        <f>N3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>16</v>
       </c>
@@ -2392,11 +2797,11 @@
         <v>7</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="H43" s="4">
@@ -2406,30 +2811,41 @@
         <v>23</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="L43" s="10">
         <v>10</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="O43">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" ref="T43:T63" si="34">M4</f>
+        <v>9</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" ref="U43:U63" si="35">N4</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>17</v>
       </c>
@@ -2443,11 +2859,11 @@
         <v>2</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="H44" s="4">
@@ -2457,81 +2873,103 @@
         <v>23</v>
       </c>
       <c r="J44" s="6">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="L44" s="10">
+        <v>10</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="U44" s="8">
+        <f t="shared" si="35"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
         <f t="shared" si="32"/>
+        <v>23</v>
+      </c>
+      <c r="H45" s="4">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4">
+        <v>23</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="K44" s="6">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="L44" s="10">
-        <v>10</v>
-      </c>
-      <c r="M44" s="11">
+      <c r="K45" s="6">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N44" s="8">
+      <c r="L45" s="10">
+        <v>10</v>
+      </c>
+      <c r="M45" s="11">
         <f t="shared" si="13"/>
-        <v>120</v>
-      </c>
-      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="N45" s="8">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>18</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="H45" s="4">
-        <v>15</v>
-      </c>
-      <c r="I45" s="4">
-        <v>23</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="K45" s="6">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="L45" s="10">
-        <v>10</v>
-      </c>
-      <c r="M45" s="11">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N45" s="8">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T45" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" si="35"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>19</v>
       </c>
@@ -2545,11 +2983,11 @@
         <v>7</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="H46" s="4">
@@ -2559,30 +2997,41 @@
         <v>23</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="L46" s="10">
         <v>10</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="O46">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>20</v>
       </c>
@@ -2596,11 +3045,11 @@
         <v>6</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>322</v>
       </c>
       <c r="H47" s="4">
@@ -2610,30 +3059,41 @@
         <v>23</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="L47" s="10">
         <v>20</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
       <c r="O47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" s="11">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" si="35"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <v>21</v>
       </c>
@@ -2647,11 +3107,11 @@
         <v>3</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ref="F48:F49" si="33">+D48-E48</f>
+        <f t="shared" ref="F48:F49" si="36">+D48-E48</f>
         <v>1</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" ref="G48:G49" si="34">+F48*23</f>
+        <f t="shared" ref="G48:G49" si="37">+F48*23</f>
         <v>23</v>
       </c>
       <c r="H48" s="4">
@@ -2661,30 +3121,41 @@
         <v>23</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" ref="J48:J49" si="35">+I48-H48</f>
+        <f t="shared" ref="J48:J49" si="38">+I48-H48</f>
         <v>11</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" ref="K48:K49" si="36">+J48*F48</f>
+        <f t="shared" ref="K48:K49" si="39">+J48*F48</f>
         <v>11</v>
       </c>
       <c r="L48" s="10">
         <v>5</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" ref="M48:M49" si="37">+L48-E48</f>
+        <f t="shared" ref="M48:M49" si="40">+L48-E48</f>
         <v>2</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" ref="N48:N49" si="38">+M48*H48</f>
+        <f t="shared" ref="N48:N49" si="41">+M48*H48</f>
         <v>24</v>
       </c>
       <c r="O48">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>22</v>
       </c>
@@ -2698,11 +3169,11 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23</v>
       </c>
       <c r="H49" s="4">
@@ -2712,33 +3183,107 @@
         <v>23</v>
       </c>
       <c r="J49" s="6">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="L49" s="10">
+        <v>5</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T49" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="U49" s="8">
         <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="K49" s="6">
-        <f t="shared" si="36"/>
-        <v>11</v>
-      </c>
-      <c r="L49" s="10">
-        <v>5</v>
-      </c>
-      <c r="M49" s="11">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="N49" s="8">
-        <f t="shared" si="38"/>
-        <v>12</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G50" s="5"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="11">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="U50" s="8">
+        <f t="shared" si="35"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="U51" s="8">
+        <f t="shared" si="35"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T52" s="11">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="U52" s="8">
+        <f t="shared" si="35"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S53" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T54" s="11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="U54" s="8">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2765,8 +3310,19 @@
         <f>SUM(N28:N50)</f>
         <v>1579</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T55" s="11">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="U55" s="8">
+        <f t="shared" si="35"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
@@ -2781,8 +3337,19 @@
         <f>+G55+D56</f>
         <v>3324</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T56" s="11">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="8">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2801,11 +3368,110 @@
         <f>+G57/2</f>
         <v>433</v>
       </c>
+      <c r="S57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T58" s="11">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="U58" s="8">
+        <f t="shared" si="35"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T59" s="11">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="U59" s="8">
+        <f t="shared" si="35"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="11">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" si="35"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T61" s="11">
+        <f t="shared" si="34"/>
+        <v>35</v>
+      </c>
+      <c r="U61" s="8">
+        <f t="shared" si="35"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" s="11">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="U62" s="8">
+        <f t="shared" si="35"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T64" s="8">
+        <f>SUM(U42:U63)</f>
+        <v>2273</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B26:N26"/>
+    <mergeCell ref="S40:U40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
